--- a/Code/Results/Cases/Case_2_194/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_194/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.025794145280768</v>
+        <v>1.046919633519343</v>
       </c>
       <c r="D2">
-        <v>1.04547874406742</v>
+        <v>1.056451915327412</v>
       </c>
       <c r="E2">
-        <v>1.038557371125317</v>
+        <v>1.060710624707767</v>
       </c>
       <c r="F2">
-        <v>1.050750493135624</v>
+        <v>1.068653181176422</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061485499150403</v>
+        <v>1.049859609129481</v>
       </c>
       <c r="J2">
-        <v>1.047229808298431</v>
+        <v>1.051971462113002</v>
       </c>
       <c r="K2">
-        <v>1.056338862863252</v>
+        <v>1.059189588494537</v>
       </c>
       <c r="L2">
-        <v>1.049504456146016</v>
+        <v>1.063436662836598</v>
       </c>
       <c r="M2">
-        <v>1.061545329612947</v>
+        <v>1.071357787801804</v>
       </c>
       <c r="N2">
-        <v>1.048716994745153</v>
+        <v>1.053465382252016</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.029941621963768</v>
+        <v>1.047790816784484</v>
       </c>
       <c r="D3">
-        <v>1.048770607864881</v>
+        <v>1.057165926946021</v>
       </c>
       <c r="E3">
-        <v>1.042402245684102</v>
+        <v>1.061600813002955</v>
       </c>
       <c r="F3">
-        <v>1.054575805256146</v>
+        <v>1.069517547882628</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063014976383785</v>
+        <v>1.050121720316649</v>
       </c>
       <c r="J3">
-        <v>1.049648042951285</v>
+        <v>1.052491294062492</v>
       </c>
       <c r="K3">
-        <v>1.058815290167701</v>
+        <v>1.059717495514553</v>
       </c>
       <c r="L3">
-        <v>1.052519872592643</v>
+        <v>1.064141138791813</v>
       </c>
       <c r="M3">
-        <v>1.064554938909476</v>
+        <v>1.072038053710377</v>
       </c>
       <c r="N3">
-        <v>1.051138663568589</v>
+        <v>1.053985952422499</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.032573473262481</v>
+        <v>1.048354973520782</v>
       </c>
       <c r="D4">
-        <v>1.050861990283943</v>
+        <v>1.057628327024214</v>
       </c>
       <c r="E4">
-        <v>1.04485116778963</v>
+        <v>1.062178061612065</v>
       </c>
       <c r="F4">
-        <v>1.057009347118645</v>
+        <v>1.070077747200889</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063975940122492</v>
+        <v>1.050290273244361</v>
       </c>
       <c r="J4">
-        <v>1.051179117807615</v>
+        <v>1.052827433100125</v>
       </c>
       <c r="K4">
-        <v>1.060382992488707</v>
+        <v>1.060058798869752</v>
       </c>
       <c r="L4">
-        <v>1.054436814511189</v>
+        <v>1.064597578745276</v>
       </c>
       <c r="M4">
-        <v>1.066465166449874</v>
+        <v>1.072478481261323</v>
       </c>
       <c r="N4">
-        <v>1.052671912726832</v>
+        <v>1.054322568816122</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.033667890405692</v>
+        <v>1.048592249654525</v>
       </c>
       <c r="D5">
-        <v>1.05173221649833</v>
+        <v>1.057822811015639</v>
       </c>
       <c r="E5">
-        <v>1.045871667409697</v>
+        <v>1.062421031408992</v>
       </c>
       <c r="F5">
-        <v>1.058022737189488</v>
+        <v>1.070313467837267</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064373207214419</v>
+        <v>1.050360880648621</v>
       </c>
       <c r="J5">
-        <v>1.051814936246846</v>
+        <v>1.052968690480304</v>
       </c>
       <c r="K5">
-        <v>1.061033963766293</v>
+        <v>1.060202212690216</v>
       </c>
       <c r="L5">
-        <v>1.055234745398678</v>
+        <v>1.064789607562575</v>
       </c>
       <c r="M5">
-        <v>1.067259575916132</v>
+        <v>1.072663695420058</v>
       </c>
       <c r="N5">
-        <v>1.053308634101175</v>
+        <v>1.054464026797983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.033850954647908</v>
+        <v>1.048632095457307</v>
       </c>
       <c r="D6">
-        <v>1.051877811638519</v>
+        <v>1.057855471023063</v>
       </c>
       <c r="E6">
-        <v>1.046042492969152</v>
+        <v>1.062461844325575</v>
       </c>
       <c r="F6">
-        <v>1.058192331498807</v>
+        <v>1.070353058800455</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064439520190222</v>
+        <v>1.050372721128981</v>
       </c>
       <c r="J6">
-        <v>1.051921239077758</v>
+        <v>1.052992404930351</v>
       </c>
       <c r="K6">
-        <v>1.061142796454646</v>
+        <v>1.060226288355178</v>
       </c>
       <c r="L6">
-        <v>1.055368262132926</v>
+        <v>1.064821858299486</v>
       </c>
       <c r="M6">
-        <v>1.067392460671747</v>
+        <v>1.072694797076038</v>
       </c>
       <c r="N6">
-        <v>1.053415087894301</v>
+        <v>1.054487774925269</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.03258814360642</v>
+        <v>1.04835814360666</v>
       </c>
       <c r="D7">
-        <v>1.050873653270834</v>
+        <v>1.05763092537328</v>
       </c>
       <c r="E7">
-        <v>1.044864838834956</v>
+        <v>1.062181307031428</v>
       </c>
       <c r="F7">
-        <v>1.057022925684917</v>
+        <v>1.070080896077403</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063981274642058</v>
+        <v>1.050291217696038</v>
       </c>
       <c r="J7">
-        <v>1.051187644188732</v>
+        <v>1.052829320807529</v>
       </c>
       <c r="K7">
-        <v>1.060391722306028</v>
+        <v>1.060060715449244</v>
       </c>
       <c r="L7">
-        <v>1.054447507430194</v>
+        <v>1.06460014408969</v>
       </c>
       <c r="M7">
-        <v>1.066475815049115</v>
+        <v>1.072480955874244</v>
       </c>
       <c r="N7">
-        <v>1.052680451216388</v>
+        <v>1.054324459204287</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.027206784628559</v>
+        <v>1.047213961437766</v>
       </c>
       <c r="D8">
-        <v>1.046599417353911</v>
+        <v>1.056693137838632</v>
       </c>
       <c r="E8">
-        <v>1.039865019186447</v>
+        <v>1.061011210793207</v>
       </c>
       <c r="F8">
-        <v>1.052052098573871</v>
+        <v>1.068945111338482</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062008431115359</v>
+        <v>1.049948407904159</v>
       </c>
       <c r="J8">
-        <v>1.04805417155306</v>
+        <v>1.052147188076068</v>
       </c>
       <c r="K8">
-        <v>1.057183105565088</v>
+        <v>1.059368056002134</v>
       </c>
       <c r="L8">
-        <v>1.050530769105437</v>
+        <v>1.063674619325699</v>
       </c>
       <c r="M8">
-        <v>1.062570297939032</v>
+        <v>1.071587634216876</v>
       </c>
       <c r="N8">
-        <v>1.049542528690158</v>
+        <v>1.053641357766105</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.017308240397789</v>
+        <v>1.045201219971748</v>
       </c>
       <c r="D9">
-        <v>1.038758844652563</v>
+        <v>1.055043669887546</v>
       </c>
       <c r="E9">
-        <v>1.030742015018206</v>
+        <v>1.058958903719651</v>
       </c>
       <c r="F9">
-        <v>1.04295894650646</v>
+        <v>1.066950654010352</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058304982110222</v>
+        <v>1.049336320388941</v>
       </c>
       <c r="J9">
-        <v>1.042264263827611</v>
+        <v>1.050943494419603</v>
       </c>
       <c r="K9">
-        <v>1.051252897544975</v>
+        <v>1.058145351076226</v>
       </c>
       <c r="L9">
-        <v>1.043355265114737</v>
+        <v>1.062048361653748</v>
       </c>
       <c r="M9">
-        <v>1.055391478721048</v>
+        <v>1.070015465797801</v>
       </c>
       <c r="N9">
-        <v>1.043744398631628</v>
+        <v>1.052435954726583</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.010401709820109</v>
+        <v>1.043861796727591</v>
       </c>
       <c r="D10">
-        <v>1.033305532408497</v>
+        <v>1.053946159560758</v>
       </c>
       <c r="E10">
-        <v>1.024428833089457</v>
+        <v>1.05759722364038</v>
       </c>
       <c r="F10">
-        <v>1.036650793901096</v>
+        <v>1.065625784685666</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055672769147376</v>
+        <v>1.048922918910073</v>
       </c>
       <c r="J10">
-        <v>1.038208626937014</v>
+        <v>1.050139963557329</v>
       </c>
       <c r="K10">
-        <v>1.047098402258062</v>
+        <v>1.05732884060372</v>
       </c>
       <c r="L10">
-        <v>1.038370594299819</v>
+        <v>1.060967391952088</v>
       </c>
       <c r="M10">
-        <v>1.050388403687262</v>
+        <v>1.068968769255792</v>
       </c>
       <c r="N10">
-        <v>1.039683002271458</v>
+        <v>1.051631282758318</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.007331478136768</v>
+        <v>1.043282399112264</v>
       </c>
       <c r="D11">
-        <v>1.030886065934876</v>
+        <v>1.053471451909819</v>
       </c>
       <c r="E11">
-        <v>1.021635324000161</v>
+        <v>1.057009170242346</v>
       </c>
       <c r="F11">
-        <v>1.033855786988398</v>
+        <v>1.065053254299996</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054491729080094</v>
+        <v>1.048742653428249</v>
       </c>
       <c r="J11">
-        <v>1.036402407937567</v>
+        <v>1.049791786408097</v>
       </c>
       <c r="K11">
-        <v>1.045248111000269</v>
+        <v>1.056974971781105</v>
       </c>
       <c r="L11">
-        <v>1.036160446879764</v>
+        <v>1.060500097628198</v>
       </c>
       <c r="M11">
-        <v>1.0481662805224</v>
+        <v>1.06851589184283</v>
       </c>
       <c r="N11">
-        <v>1.037874218233856</v>
+        <v>1.051282611157597</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.006178477945643</v>
+        <v>1.04306727375545</v>
       </c>
       <c r="D12">
-        <v>1.029978226656747</v>
+        <v>1.053295204318932</v>
       </c>
       <c r="E12">
-        <v>1.020588242503378</v>
+        <v>1.056790977598793</v>
       </c>
       <c r="F12">
-        <v>1.032807582989697</v>
+        <v>1.064840765044198</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054046604862285</v>
+        <v>1.048675506233081</v>
       </c>
       <c r="J12">
-        <v>1.035723635876568</v>
+        <v>1.049662422515696</v>
       </c>
       <c r="K12">
-        <v>1.044552778331576</v>
+        <v>1.056843483106458</v>
       </c>
       <c r="L12">
-        <v>1.035331355465818</v>
+        <v>1.060326641243426</v>
       </c>
       <c r="M12">
-        <v>1.047332123390888</v>
+        <v>1.068347726889769</v>
       </c>
       <c r="N12">
-        <v>1.037194482238674</v>
+        <v>1.051153063553631</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.006426379901581</v>
+        <v>1.043113414838433</v>
       </c>
       <c r="D13">
-        <v>1.030173381736154</v>
+        <v>1.053333006380976</v>
       </c>
       <c r="E13">
-        <v>1.020813280174361</v>
+        <v>1.056837769928213</v>
       </c>
       <c r="F13">
-        <v>1.033032887296884</v>
+        <v>1.064886336808239</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054142380531993</v>
+        <v>1.048689918055957</v>
       </c>
       <c r="J13">
-        <v>1.035869596161915</v>
+        <v>1.049690173093706</v>
       </c>
       <c r="K13">
-        <v>1.044702299528931</v>
+        <v>1.056871689937602</v>
       </c>
       <c r="L13">
-        <v>1.03550957310644</v>
+        <v>1.060363842884919</v>
       </c>
       <c r="M13">
-        <v>1.047511455844701</v>
+        <v>1.06838379638171</v>
       </c>
       <c r="N13">
-        <v>1.037340649804368</v>
+        <v>1.051180853540645</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.007236431073519</v>
+        <v>1.043264614965558</v>
       </c>
       <c r="D14">
-        <v>1.030811212579266</v>
+        <v>1.053456881588376</v>
       </c>
       <c r="E14">
-        <v>1.021548967374816</v>
+        <v>1.056991129534316</v>
       </c>
       <c r="F14">
-        <v>1.03376934921055</v>
+        <v>1.065035686311827</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054455067606539</v>
+        <v>1.048737106862732</v>
       </c>
       <c r="J14">
-        <v>1.036346462817217</v>
+        <v>1.049781093864058</v>
       </c>
       <c r="K14">
-        <v>1.045190800854488</v>
+        <v>1.056964103818474</v>
       </c>
       <c r="L14">
-        <v>1.036092082278088</v>
+        <v>1.060485757263314</v>
       </c>
       <c r="M14">
-        <v>1.048097509875128</v>
+        <v>1.068501990167864</v>
       </c>
       <c r="N14">
-        <v>1.037818193665018</v>
+        <v>1.05127190342892</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.007733844479921</v>
+        <v>1.043357786150282</v>
       </c>
       <c r="D15">
-        <v>1.0312029772903</v>
+        <v>1.053533215836547</v>
       </c>
       <c r="E15">
-        <v>1.022000982552395</v>
+        <v>1.057085650849205</v>
       </c>
       <c r="F15">
-        <v>1.034221766258503</v>
+        <v>1.065127728581464</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05464686475716</v>
+        <v>1.048766156478348</v>
       </c>
       <c r="J15">
-        <v>1.036639223957979</v>
+        <v>1.049837108494235</v>
       </c>
       <c r="K15">
-        <v>1.045490705298038</v>
+        <v>1.057021036995876</v>
       </c>
       <c r="L15">
-        <v>1.036449894795094</v>
+        <v>1.060560888353096</v>
       </c>
       <c r="M15">
-        <v>1.048457424203747</v>
+        <v>1.068574820443284</v>
       </c>
       <c r="N15">
-        <v>1.03811137056018</v>
+        <v>1.051327997606296</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.010603741348491</v>
+        <v>1.043900261805827</v>
       </c>
       <c r="D16">
-        <v>1.033464845268604</v>
+        <v>1.053977675470153</v>
       </c>
       <c r="E16">
-        <v>1.024612929724042</v>
+        <v>1.057636283888051</v>
       </c>
       <c r="F16">
-        <v>1.036834911338577</v>
+        <v>1.06566380595078</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055750261778607</v>
+        <v>1.048934856052792</v>
       </c>
       <c r="J16">
-        <v>1.038327416065046</v>
+        <v>1.050163065903279</v>
       </c>
       <c r="K16">
-        <v>1.047220089639142</v>
+        <v>1.057352319190156</v>
       </c>
       <c r="L16">
-        <v>1.038516153147019</v>
+        <v>1.060998421140418</v>
       </c>
       <c r="M16">
-        <v>1.050534671619415</v>
+        <v>1.068998832715677</v>
       </c>
       <c r="N16">
-        <v>1.039801960093678</v>
+        <v>1.051654417912249</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.012382205303315</v>
+        <v>1.044240699087539</v>
       </c>
       <c r="D17">
-        <v>1.034867808994351</v>
+        <v>1.05425661402853</v>
       </c>
       <c r="E17">
-        <v>1.026234996524435</v>
+        <v>1.057982101149318</v>
       </c>
       <c r="F17">
-        <v>1.038456736028476</v>
+        <v>1.066000381367799</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0564311837079</v>
+        <v>1.049040340031012</v>
       </c>
       <c r="J17">
-        <v>1.039372730959638</v>
+        <v>1.050367466103228</v>
       </c>
       <c r="K17">
-        <v>1.048290904336529</v>
+        <v>1.057560040429301</v>
       </c>
       <c r="L17">
-        <v>1.039798153245102</v>
+        <v>1.06127308178962</v>
       </c>
       <c r="M17">
-        <v>1.051822481653103</v>
+        <v>1.069264898887462</v>
       </c>
       <c r="N17">
-        <v>1.04084875945532</v>
+        <v>1.051859108383927</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.013411910683627</v>
+        <v>1.044439326408461</v>
       </c>
       <c r="D18">
-        <v>1.035680552409548</v>
+        <v>1.054419364385836</v>
       </c>
       <c r="E18">
-        <v>1.027175377154928</v>
+        <v>1.058183961203185</v>
       </c>
       <c r="F18">
-        <v>1.0393966218044</v>
+        <v>1.066196810645124</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056824388000287</v>
+        <v>1.049101745439152</v>
       </c>
       <c r="J18">
-        <v>1.039977635071857</v>
+        <v>1.050486665762883</v>
       </c>
       <c r="K18">
-        <v>1.048910559900319</v>
+        <v>1.05768117029837</v>
       </c>
       <c r="L18">
-        <v>1.040540954960164</v>
+        <v>1.06143336115582</v>
       </c>
       <c r="M18">
-        <v>1.052568286732782</v>
+        <v>1.0694201243705</v>
       </c>
       <c r="N18">
-        <v>1.041454522600761</v>
+        <v>1.051978477320771</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.013761735238568</v>
+        <v>1.044507062651779</v>
       </c>
       <c r="D19">
-        <v>1.035956742100111</v>
+        <v>1.054474866520312</v>
       </c>
       <c r="E19">
-        <v>1.027495061815926</v>
+        <v>1.058252815772804</v>
       </c>
       <c r="F19">
-        <v>1.039716078154311</v>
+        <v>1.066263806647811</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056957794627907</v>
+        <v>1.049122662447178</v>
       </c>
       <c r="J19">
-        <v>1.040183085642656</v>
+        <v>1.050527305743513</v>
       </c>
       <c r="K19">
-        <v>1.049121019619495</v>
+        <v>1.057722467258068</v>
       </c>
       <c r="L19">
-        <v>1.040793399463628</v>
+        <v>1.061488024862845</v>
       </c>
       <c r="M19">
-        <v>1.052821690372769</v>
+        <v>1.069473057902056</v>
       </c>
       <c r="N19">
-        <v>1.041660264934937</v>
+        <v>1.052019175014835</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.012192187754186</v>
+        <v>1.044204167585479</v>
       </c>
       <c r="D20">
-        <v>1.034717864449326</v>
+        <v>1.054226681355428</v>
       </c>
       <c r="E20">
-        <v>1.026061561383577</v>
+        <v>1.057944982630203</v>
       </c>
       <c r="F20">
-        <v>1.038283363538995</v>
+        <v>1.06596425856563</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056358539078966</v>
+        <v>1.049029035172117</v>
       </c>
       <c r="J20">
-        <v>1.039261078477351</v>
+        <v>1.050345538320845</v>
       </c>
       <c r="K20">
-        <v>1.048176528602289</v>
+        <v>1.05753775704355</v>
       </c>
       <c r="L20">
-        <v>1.03966112315065</v>
+        <v>1.061243605589511</v>
       </c>
       <c r="M20">
-        <v>1.051684868186626</v>
+        <v>1.069236349020883</v>
       </c>
       <c r="N20">
-        <v>1.040736948413701</v>
+        <v>1.051837149461578</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.0069982435576</v>
+        <v>1.043220087836825</v>
       </c>
       <c r="D21">
-        <v>1.030623643033831</v>
+        <v>1.053420401206913</v>
       </c>
       <c r="E21">
-        <v>1.021332590425753</v>
+        <v>1.056945962408202</v>
       </c>
       <c r="F21">
-        <v>1.033552759873855</v>
+        <v>1.06499170178771</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054363168587776</v>
+        <v>1.048723216134927</v>
       </c>
       <c r="J21">
-        <v>1.036206257293753</v>
+        <v>1.049754320931538</v>
       </c>
       <c r="K21">
-        <v>1.04504717446044</v>
+        <v>1.056936891495166</v>
       </c>
       <c r="L21">
-        <v>1.035920775743698</v>
+        <v>1.060449853261402</v>
       </c>
       <c r="M21">
-        <v>1.047925176641346</v>
+        <v>1.068467183544798</v>
       </c>
       <c r="N21">
-        <v>1.03767778903363</v>
+        <v>1.051245092475765</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.003659491842392</v>
+        <v>1.04260187179227</v>
       </c>
       <c r="D22">
-        <v>1.027996333059893</v>
+        <v>1.052913924336444</v>
       </c>
       <c r="E22">
-        <v>1.018304391052018</v>
+        <v>1.056319208335283</v>
       </c>
       <c r="F22">
-        <v>1.030520250651531</v>
+        <v>1.064381224432251</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053071252725959</v>
+        <v>1.048529844924366</v>
       </c>
       <c r="J22">
-        <v>1.03423990208306</v>
+        <v>1.049382394849576</v>
       </c>
       <c r="K22">
-        <v>1.043032857080077</v>
+        <v>1.056558837708699</v>
       </c>
       <c r="L22">
-        <v>1.033521751384457</v>
+        <v>1.059951470397073</v>
       </c>
       <c r="M22">
-        <v>1.045510409266896</v>
+        <v>1.067983891140277</v>
       </c>
       <c r="N22">
-        <v>1.035708641372993</v>
+        <v>1.050872638216106</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.005436572224838</v>
+        <v>1.042929550645015</v>
       </c>
       <c r="D23">
-        <v>1.029394296154531</v>
+        <v>1.053182372840909</v>
       </c>
       <c r="E23">
-        <v>1.019915060476004</v>
+        <v>1.056651332125472</v>
       </c>
       <c r="F23">
-        <v>1.032133520989652</v>
+        <v>1.064704753933151</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053759743294771</v>
+        <v>1.048632457801594</v>
       </c>
       <c r="J23">
-        <v>1.035286750313572</v>
+        <v>1.049579578892077</v>
       </c>
       <c r="K23">
-        <v>1.044105235214252</v>
+        <v>1.056759275965666</v>
       </c>
       <c r="L23">
-        <v>1.03479813409652</v>
+        <v>1.060215607575065</v>
       </c>
       <c r="M23">
-        <v>1.046795482525138</v>
+        <v>1.068240063491332</v>
       </c>
       <c r="N23">
-        <v>1.036756976248067</v>
+        <v>1.051070102282564</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.012278072078878</v>
+        <v>1.044220674425842</v>
       </c>
       <c r="D24">
-        <v>1.034785635154597</v>
+        <v>1.054240206486998</v>
       </c>
       <c r="E24">
-        <v>1.026139946974869</v>
+        <v>1.057961754425826</v>
       </c>
       <c r="F24">
-        <v>1.038361721912597</v>
+        <v>1.065980580563724</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056391376298938</v>
+        <v>1.049034143727074</v>
       </c>
       <c r="J24">
-        <v>1.039311544269411</v>
+        <v>1.050355446614623</v>
       </c>
       <c r="K24">
-        <v>1.048228225292201</v>
+        <v>1.057547826040504</v>
       </c>
       <c r="L24">
-        <v>1.039723056475765</v>
+        <v>1.061256924385663</v>
       </c>
       <c r="M24">
-        <v>1.051747066302495</v>
+        <v>1.069249249373063</v>
       </c>
       <c r="N24">
-        <v>1.040787485872973</v>
+        <v>1.051847071826269</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.019919305778233</v>
+        <v>1.04572114413401</v>
       </c>
       <c r="D25">
-        <v>1.040824270628944</v>
+        <v>1.055469727569922</v>
       </c>
       <c r="E25">
-        <v>1.033139670291617</v>
+        <v>1.059488331781911</v>
       </c>
       <c r="F25">
-        <v>1.045351458998527</v>
+        <v>1.067465435993199</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059290370849767</v>
+        <v>1.049495504695726</v>
       </c>
       <c r="J25">
-        <v>1.04379441123671</v>
+        <v>1.051254871302107</v>
       </c>
       <c r="K25">
-        <v>1.052820253246353</v>
+        <v>1.058461697033967</v>
       </c>
       <c r="L25">
-        <v>1.045244430042091</v>
+        <v>1.062468230127613</v>
       </c>
       <c r="M25">
-        <v>1.057284302691345</v>
+        <v>1.070421665750591</v>
       </c>
       <c r="N25">
-        <v>1.045276719025558</v>
+        <v>1.052747773799975</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_194/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_194/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046919633519343</v>
+        <v>1.025794145280768</v>
       </c>
       <c r="D2">
-        <v>1.056451915327412</v>
+        <v>1.045478744067419</v>
       </c>
       <c r="E2">
-        <v>1.060710624707767</v>
+        <v>1.038557371125317</v>
       </c>
       <c r="F2">
-        <v>1.068653181176422</v>
+        <v>1.050750493135623</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049859609129481</v>
+        <v>1.061485499150403</v>
       </c>
       <c r="J2">
-        <v>1.051971462113002</v>
+        <v>1.047229808298431</v>
       </c>
       <c r="K2">
-        <v>1.059189588494537</v>
+        <v>1.056338862863252</v>
       </c>
       <c r="L2">
-        <v>1.063436662836598</v>
+        <v>1.049504456146016</v>
       </c>
       <c r="M2">
-        <v>1.071357787801804</v>
+        <v>1.061545329612947</v>
       </c>
       <c r="N2">
-        <v>1.053465382252016</v>
+        <v>1.048716994745152</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047790816784484</v>
+        <v>1.029941621963768</v>
       </c>
       <c r="D3">
-        <v>1.057165926946021</v>
+        <v>1.048770607864882</v>
       </c>
       <c r="E3">
-        <v>1.061600813002955</v>
+        <v>1.042402245684102</v>
       </c>
       <c r="F3">
-        <v>1.069517547882628</v>
+        <v>1.054575805256147</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050121720316649</v>
+        <v>1.063014976383785</v>
       </c>
       <c r="J3">
-        <v>1.052491294062492</v>
+        <v>1.049648042951285</v>
       </c>
       <c r="K3">
-        <v>1.059717495514553</v>
+        <v>1.058815290167701</v>
       </c>
       <c r="L3">
-        <v>1.064141138791813</v>
+        <v>1.052519872592643</v>
       </c>
       <c r="M3">
-        <v>1.072038053710377</v>
+        <v>1.064554938909476</v>
       </c>
       <c r="N3">
-        <v>1.053985952422499</v>
+        <v>1.051138663568589</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048354973520782</v>
+        <v>1.032573473262481</v>
       </c>
       <c r="D4">
-        <v>1.057628327024214</v>
+        <v>1.050861990283944</v>
       </c>
       <c r="E4">
-        <v>1.062178061612065</v>
+        <v>1.044851167789631</v>
       </c>
       <c r="F4">
-        <v>1.070077747200889</v>
+        <v>1.057009347118645</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050290273244361</v>
+        <v>1.063975940122492</v>
       </c>
       <c r="J4">
-        <v>1.052827433100125</v>
+        <v>1.051179117807615</v>
       </c>
       <c r="K4">
-        <v>1.060058798869752</v>
+        <v>1.060382992488707</v>
       </c>
       <c r="L4">
-        <v>1.064597578745276</v>
+        <v>1.054436814511189</v>
       </c>
       <c r="M4">
-        <v>1.072478481261323</v>
+        <v>1.066465166449874</v>
       </c>
       <c r="N4">
-        <v>1.054322568816122</v>
+        <v>1.052671912726832</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048592249654525</v>
+        <v>1.033667890405692</v>
       </c>
       <c r="D5">
-        <v>1.057822811015639</v>
+        <v>1.05173221649833</v>
       </c>
       <c r="E5">
-        <v>1.062421031408992</v>
+        <v>1.045871667409697</v>
       </c>
       <c r="F5">
-        <v>1.070313467837267</v>
+        <v>1.058022737189487</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050360880648621</v>
+        <v>1.064373207214419</v>
       </c>
       <c r="J5">
-        <v>1.052968690480304</v>
+        <v>1.051814936246846</v>
       </c>
       <c r="K5">
-        <v>1.060202212690216</v>
+        <v>1.061033963766292</v>
       </c>
       <c r="L5">
-        <v>1.064789607562575</v>
+        <v>1.055234745398678</v>
       </c>
       <c r="M5">
-        <v>1.072663695420058</v>
+        <v>1.067259575916132</v>
       </c>
       <c r="N5">
-        <v>1.054464026797983</v>
+        <v>1.053308634101175</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048632095457307</v>
+        <v>1.033850954647908</v>
       </c>
       <c r="D6">
-        <v>1.057855471023063</v>
+        <v>1.051877811638519</v>
       </c>
       <c r="E6">
-        <v>1.062461844325575</v>
+        <v>1.046042492969152</v>
       </c>
       <c r="F6">
-        <v>1.070353058800455</v>
+        <v>1.058192331498808</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050372721128981</v>
+        <v>1.064439520190222</v>
       </c>
       <c r="J6">
-        <v>1.052992404930351</v>
+        <v>1.051921239077758</v>
       </c>
       <c r="K6">
-        <v>1.060226288355178</v>
+        <v>1.061142796454646</v>
       </c>
       <c r="L6">
-        <v>1.064821858299486</v>
+        <v>1.055368262132926</v>
       </c>
       <c r="M6">
-        <v>1.072694797076038</v>
+        <v>1.067392460671747</v>
       </c>
       <c r="N6">
-        <v>1.054487774925269</v>
+        <v>1.053415087894301</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04835814360666</v>
+        <v>1.03258814360642</v>
       </c>
       <c r="D7">
-        <v>1.05763092537328</v>
+        <v>1.050873653270834</v>
       </c>
       <c r="E7">
-        <v>1.062181307031428</v>
+        <v>1.044864838834956</v>
       </c>
       <c r="F7">
-        <v>1.070080896077403</v>
+        <v>1.057022925684917</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050291217696038</v>
+        <v>1.063981274642058</v>
       </c>
       <c r="J7">
-        <v>1.052829320807529</v>
+        <v>1.051187644188732</v>
       </c>
       <c r="K7">
-        <v>1.060060715449244</v>
+        <v>1.060391722306028</v>
       </c>
       <c r="L7">
-        <v>1.06460014408969</v>
+        <v>1.054447507430195</v>
       </c>
       <c r="M7">
-        <v>1.072480955874244</v>
+        <v>1.066475815049115</v>
       </c>
       <c r="N7">
-        <v>1.054324459204287</v>
+        <v>1.052680451216388</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047213961437766</v>
+        <v>1.027206784628559</v>
       </c>
       <c r="D8">
-        <v>1.056693137838632</v>
+        <v>1.046599417353911</v>
       </c>
       <c r="E8">
-        <v>1.061011210793207</v>
+        <v>1.039865019186447</v>
       </c>
       <c r="F8">
-        <v>1.068945111338482</v>
+        <v>1.052052098573871</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049948407904159</v>
+        <v>1.062008431115359</v>
       </c>
       <c r="J8">
-        <v>1.052147188076068</v>
+        <v>1.04805417155306</v>
       </c>
       <c r="K8">
-        <v>1.059368056002134</v>
+        <v>1.057183105565088</v>
       </c>
       <c r="L8">
-        <v>1.063674619325699</v>
+        <v>1.050530769105437</v>
       </c>
       <c r="M8">
-        <v>1.071587634216876</v>
+        <v>1.062570297939032</v>
       </c>
       <c r="N8">
-        <v>1.053641357766105</v>
+        <v>1.049542528690159</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.045201219971748</v>
+        <v>1.017308240397789</v>
       </c>
       <c r="D9">
-        <v>1.055043669887546</v>
+        <v>1.038758844652562</v>
       </c>
       <c r="E9">
-        <v>1.058958903719651</v>
+        <v>1.030742015018206</v>
       </c>
       <c r="F9">
-        <v>1.066950654010352</v>
+        <v>1.042958946506459</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049336320388941</v>
+        <v>1.058304982110222</v>
       </c>
       <c r="J9">
-        <v>1.050943494419603</v>
+        <v>1.04226426382761</v>
       </c>
       <c r="K9">
-        <v>1.058145351076226</v>
+        <v>1.051252897544975</v>
       </c>
       <c r="L9">
-        <v>1.062048361653748</v>
+        <v>1.043355265114736</v>
       </c>
       <c r="M9">
-        <v>1.070015465797801</v>
+        <v>1.055391478721047</v>
       </c>
       <c r="N9">
-        <v>1.052435954726583</v>
+        <v>1.043744398631627</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043861796727591</v>
+        <v>1.010401709820109</v>
       </c>
       <c r="D10">
-        <v>1.053946159560758</v>
+        <v>1.033305532408497</v>
       </c>
       <c r="E10">
-        <v>1.05759722364038</v>
+        <v>1.024428833089458</v>
       </c>
       <c r="F10">
-        <v>1.065625784685666</v>
+        <v>1.036650793901096</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048922918910073</v>
+        <v>1.055672769147376</v>
       </c>
       <c r="J10">
-        <v>1.050139963557329</v>
+        <v>1.038208626937014</v>
       </c>
       <c r="K10">
-        <v>1.05732884060372</v>
+        <v>1.047098402258062</v>
       </c>
       <c r="L10">
-        <v>1.060967391952088</v>
+        <v>1.038370594299819</v>
       </c>
       <c r="M10">
-        <v>1.068968769255792</v>
+        <v>1.050388403687263</v>
       </c>
       <c r="N10">
-        <v>1.051631282758318</v>
+        <v>1.039683002271458</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.043282399112264</v>
+        <v>1.007331478136768</v>
       </c>
       <c r="D11">
-        <v>1.053471451909819</v>
+        <v>1.030886065934876</v>
       </c>
       <c r="E11">
-        <v>1.057009170242346</v>
+        <v>1.021635324000161</v>
       </c>
       <c r="F11">
-        <v>1.065053254299996</v>
+        <v>1.033855786988398</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048742653428249</v>
+        <v>1.054491729080094</v>
       </c>
       <c r="J11">
-        <v>1.049791786408097</v>
+        <v>1.036402407937567</v>
       </c>
       <c r="K11">
-        <v>1.056974971781105</v>
+        <v>1.045248111000269</v>
       </c>
       <c r="L11">
-        <v>1.060500097628198</v>
+        <v>1.036160446879764</v>
       </c>
       <c r="M11">
-        <v>1.06851589184283</v>
+        <v>1.0481662805224</v>
       </c>
       <c r="N11">
-        <v>1.051282611157597</v>
+        <v>1.037874218233857</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04306727375545</v>
+        <v>1.006178477945642</v>
       </c>
       <c r="D12">
-        <v>1.053295204318932</v>
+        <v>1.029978226656746</v>
       </c>
       <c r="E12">
-        <v>1.056790977598793</v>
+        <v>1.020588242503377</v>
       </c>
       <c r="F12">
-        <v>1.064840765044198</v>
+        <v>1.032807582989696</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048675506233081</v>
+        <v>1.054046604862284</v>
       </c>
       <c r="J12">
-        <v>1.049662422515696</v>
+        <v>1.035723635876568</v>
       </c>
       <c r="K12">
-        <v>1.056843483106458</v>
+        <v>1.044552778331576</v>
       </c>
       <c r="L12">
-        <v>1.060326641243426</v>
+        <v>1.035331355465817</v>
       </c>
       <c r="M12">
-        <v>1.068347726889769</v>
+        <v>1.047332123390887</v>
       </c>
       <c r="N12">
-        <v>1.051153063553631</v>
+        <v>1.037194482238674</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043113414838433</v>
+        <v>1.00642637990158</v>
       </c>
       <c r="D13">
-        <v>1.053333006380976</v>
+        <v>1.030173381736152</v>
       </c>
       <c r="E13">
-        <v>1.056837769928213</v>
+        <v>1.02081328017436</v>
       </c>
       <c r="F13">
-        <v>1.064886336808239</v>
+        <v>1.033032887296882</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048689918055957</v>
+        <v>1.054142380531992</v>
       </c>
       <c r="J13">
-        <v>1.049690173093706</v>
+        <v>1.035869596161914</v>
       </c>
       <c r="K13">
-        <v>1.056871689937602</v>
+        <v>1.04470229952893</v>
       </c>
       <c r="L13">
-        <v>1.060363842884919</v>
+        <v>1.035509573106439</v>
       </c>
       <c r="M13">
-        <v>1.06838379638171</v>
+        <v>1.0475114558447</v>
       </c>
       <c r="N13">
-        <v>1.051180853540645</v>
+        <v>1.037340649804368</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.043264614965558</v>
+        <v>1.007236431073518</v>
       </c>
       <c r="D14">
-        <v>1.053456881588376</v>
+        <v>1.030811212579265</v>
       </c>
       <c r="E14">
-        <v>1.056991129534316</v>
+        <v>1.021548967374815</v>
       </c>
       <c r="F14">
-        <v>1.065035686311827</v>
+        <v>1.033769349210549</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048737106862732</v>
+        <v>1.054455067606538</v>
       </c>
       <c r="J14">
-        <v>1.049781093864058</v>
+        <v>1.036346462817216</v>
       </c>
       <c r="K14">
-        <v>1.056964103818474</v>
+        <v>1.045190800854487</v>
       </c>
       <c r="L14">
-        <v>1.060485757263314</v>
+        <v>1.036092082278087</v>
       </c>
       <c r="M14">
-        <v>1.068501990167864</v>
+        <v>1.048097509875127</v>
       </c>
       <c r="N14">
-        <v>1.05127190342892</v>
+        <v>1.037818193665017</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.043357786150282</v>
+        <v>1.00773384447992</v>
       </c>
       <c r="D15">
-        <v>1.053533215836547</v>
+        <v>1.031202977290298</v>
       </c>
       <c r="E15">
-        <v>1.057085650849205</v>
+        <v>1.022000982552395</v>
       </c>
       <c r="F15">
-        <v>1.065127728581464</v>
+        <v>1.034221766258502</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048766156478348</v>
+        <v>1.054646864757159</v>
       </c>
       <c r="J15">
-        <v>1.049837108494235</v>
+        <v>1.036639223957978</v>
       </c>
       <c r="K15">
-        <v>1.057021036995876</v>
+        <v>1.045490705298036</v>
       </c>
       <c r="L15">
-        <v>1.060560888353096</v>
+        <v>1.036449894795093</v>
       </c>
       <c r="M15">
-        <v>1.068574820443284</v>
+        <v>1.048457424203746</v>
       </c>
       <c r="N15">
-        <v>1.051327997606296</v>
+        <v>1.038111370560179</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043900261805827</v>
+        <v>1.010603741348491</v>
       </c>
       <c r="D16">
-        <v>1.053977675470153</v>
+        <v>1.033464845268604</v>
       </c>
       <c r="E16">
-        <v>1.057636283888051</v>
+        <v>1.024612929724041</v>
       </c>
       <c r="F16">
-        <v>1.06566380595078</v>
+        <v>1.036834911338577</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048934856052792</v>
+        <v>1.055750261778607</v>
       </c>
       <c r="J16">
-        <v>1.050163065903279</v>
+        <v>1.038327416065046</v>
       </c>
       <c r="K16">
-        <v>1.057352319190156</v>
+        <v>1.047220089639142</v>
       </c>
       <c r="L16">
-        <v>1.060998421140418</v>
+        <v>1.038516153147019</v>
       </c>
       <c r="M16">
-        <v>1.068998832715677</v>
+        <v>1.050534671619415</v>
       </c>
       <c r="N16">
-        <v>1.051654417912249</v>
+        <v>1.039801960093677</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044240699087539</v>
+        <v>1.012382205303315</v>
       </c>
       <c r="D17">
-        <v>1.05425661402853</v>
+        <v>1.03486780899435</v>
       </c>
       <c r="E17">
-        <v>1.057982101149318</v>
+        <v>1.026234996524435</v>
       </c>
       <c r="F17">
-        <v>1.066000381367799</v>
+        <v>1.038456736028476</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049040340031012</v>
+        <v>1.0564311837079</v>
       </c>
       <c r="J17">
-        <v>1.050367466103228</v>
+        <v>1.039372730959638</v>
       </c>
       <c r="K17">
-        <v>1.057560040429301</v>
+        <v>1.048290904336528</v>
       </c>
       <c r="L17">
-        <v>1.06127308178962</v>
+        <v>1.039798153245102</v>
       </c>
       <c r="M17">
-        <v>1.069264898887462</v>
+        <v>1.051822481653103</v>
       </c>
       <c r="N17">
-        <v>1.051859108383927</v>
+        <v>1.040848759455319</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044439326408461</v>
+        <v>1.013411910683627</v>
       </c>
       <c r="D18">
-        <v>1.054419364385836</v>
+        <v>1.035680552409548</v>
       </c>
       <c r="E18">
-        <v>1.058183961203185</v>
+        <v>1.027175377154929</v>
       </c>
       <c r="F18">
-        <v>1.066196810645124</v>
+        <v>1.039396621804401</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049101745439152</v>
+        <v>1.056824388000287</v>
       </c>
       <c r="J18">
-        <v>1.050486665762883</v>
+        <v>1.039977635071857</v>
       </c>
       <c r="K18">
-        <v>1.05768117029837</v>
+        <v>1.048910559900319</v>
       </c>
       <c r="L18">
-        <v>1.06143336115582</v>
+        <v>1.040540954960165</v>
       </c>
       <c r="M18">
-        <v>1.0694201243705</v>
+        <v>1.052568286732782</v>
       </c>
       <c r="N18">
-        <v>1.051978477320771</v>
+        <v>1.041454522600761</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.044507062651779</v>
+        <v>1.013761735238568</v>
       </c>
       <c r="D19">
-        <v>1.054474866520312</v>
+        <v>1.035956742100111</v>
       </c>
       <c r="E19">
-        <v>1.058252815772804</v>
+        <v>1.027495061815926</v>
       </c>
       <c r="F19">
-        <v>1.066263806647811</v>
+        <v>1.039716078154311</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049122662447178</v>
+        <v>1.056957794627907</v>
       </c>
       <c r="J19">
-        <v>1.050527305743513</v>
+        <v>1.040183085642656</v>
       </c>
       <c r="K19">
-        <v>1.057722467258068</v>
+        <v>1.049121019619495</v>
       </c>
       <c r="L19">
-        <v>1.061488024862845</v>
+        <v>1.040793399463628</v>
       </c>
       <c r="M19">
-        <v>1.069473057902056</v>
+        <v>1.052821690372769</v>
       </c>
       <c r="N19">
-        <v>1.052019175014835</v>
+        <v>1.041660264934937</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.044204167585479</v>
+        <v>1.012192187754184</v>
       </c>
       <c r="D20">
-        <v>1.054226681355428</v>
+        <v>1.034717864449325</v>
       </c>
       <c r="E20">
-        <v>1.057944982630203</v>
+        <v>1.026061561383577</v>
       </c>
       <c r="F20">
-        <v>1.06596425856563</v>
+        <v>1.038283363538994</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049029035172117</v>
+        <v>1.056358539078965</v>
       </c>
       <c r="J20">
-        <v>1.050345538320845</v>
+        <v>1.03926107847735</v>
       </c>
       <c r="K20">
-        <v>1.05753775704355</v>
+        <v>1.048176528602288</v>
       </c>
       <c r="L20">
-        <v>1.061243605589511</v>
+        <v>1.039661123150649</v>
       </c>
       <c r="M20">
-        <v>1.069236349020883</v>
+        <v>1.051684868186626</v>
       </c>
       <c r="N20">
-        <v>1.051837149461578</v>
+        <v>1.0407369484137</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043220087836825</v>
+        <v>1.006998243557601</v>
       </c>
       <c r="D21">
-        <v>1.053420401206913</v>
+        <v>1.030623643033832</v>
       </c>
       <c r="E21">
-        <v>1.056945962408202</v>
+        <v>1.021332590425754</v>
       </c>
       <c r="F21">
-        <v>1.06499170178771</v>
+        <v>1.033552759873856</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048723216134927</v>
+        <v>1.054363168587777</v>
       </c>
       <c r="J21">
-        <v>1.049754320931538</v>
+        <v>1.036206257293755</v>
       </c>
       <c r="K21">
-        <v>1.056936891495166</v>
+        <v>1.045047174460441</v>
       </c>
       <c r="L21">
-        <v>1.060449853261402</v>
+        <v>1.035920775743699</v>
       </c>
       <c r="M21">
-        <v>1.068467183544798</v>
+        <v>1.047925176641348</v>
       </c>
       <c r="N21">
-        <v>1.051245092475765</v>
+        <v>1.037677789033631</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04260187179227</v>
+        <v>1.003659491842393</v>
       </c>
       <c r="D22">
-        <v>1.052913924336444</v>
+        <v>1.027996333059894</v>
       </c>
       <c r="E22">
-        <v>1.056319208335283</v>
+        <v>1.018304391052018</v>
       </c>
       <c r="F22">
-        <v>1.064381224432251</v>
+        <v>1.030520250651531</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048529844924366</v>
+        <v>1.05307125272596</v>
       </c>
       <c r="J22">
-        <v>1.049382394849576</v>
+        <v>1.034239902083061</v>
       </c>
       <c r="K22">
-        <v>1.056558837708699</v>
+        <v>1.043032857080078</v>
       </c>
       <c r="L22">
-        <v>1.059951470397073</v>
+        <v>1.033521751384457</v>
       </c>
       <c r="M22">
-        <v>1.067983891140277</v>
+        <v>1.045510409266896</v>
       </c>
       <c r="N22">
-        <v>1.050872638216106</v>
+        <v>1.035708641372993</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.042929550645015</v>
+        <v>1.005436572224838</v>
       </c>
       <c r="D23">
-        <v>1.053182372840909</v>
+        <v>1.029394296154531</v>
       </c>
       <c r="E23">
-        <v>1.056651332125472</v>
+        <v>1.019915060476004</v>
       </c>
       <c r="F23">
-        <v>1.064704753933151</v>
+        <v>1.032133520989652</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048632457801594</v>
+        <v>1.053759743294771</v>
       </c>
       <c r="J23">
-        <v>1.049579578892077</v>
+        <v>1.035286750313572</v>
       </c>
       <c r="K23">
-        <v>1.056759275965666</v>
+        <v>1.044105235214252</v>
       </c>
       <c r="L23">
-        <v>1.060215607575065</v>
+        <v>1.03479813409652</v>
       </c>
       <c r="M23">
-        <v>1.068240063491332</v>
+        <v>1.046795482525138</v>
       </c>
       <c r="N23">
-        <v>1.051070102282564</v>
+        <v>1.036756976248067</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044220674425842</v>
+        <v>1.012278072078878</v>
       </c>
       <c r="D24">
-        <v>1.054240206486998</v>
+        <v>1.034785635154597</v>
       </c>
       <c r="E24">
-        <v>1.057961754425826</v>
+        <v>1.026139946974869</v>
       </c>
       <c r="F24">
-        <v>1.065980580563724</v>
+        <v>1.038361721912597</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049034143727074</v>
+        <v>1.056391376298939</v>
       </c>
       <c r="J24">
-        <v>1.050355446614623</v>
+        <v>1.039311544269411</v>
       </c>
       <c r="K24">
-        <v>1.057547826040504</v>
+        <v>1.048228225292202</v>
       </c>
       <c r="L24">
-        <v>1.061256924385663</v>
+        <v>1.039723056475765</v>
       </c>
       <c r="M24">
-        <v>1.069249249373063</v>
+        <v>1.051747066302495</v>
       </c>
       <c r="N24">
-        <v>1.051847071826269</v>
+        <v>1.040787485872974</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04572114413401</v>
+        <v>1.019919305778233</v>
       </c>
       <c r="D25">
-        <v>1.055469727569922</v>
+        <v>1.040824270628944</v>
       </c>
       <c r="E25">
-        <v>1.059488331781911</v>
+        <v>1.033139670291617</v>
       </c>
       <c r="F25">
-        <v>1.067465435993199</v>
+        <v>1.045351458998527</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049495504695726</v>
+        <v>1.059290370849767</v>
       </c>
       <c r="J25">
-        <v>1.051254871302107</v>
+        <v>1.04379441123671</v>
       </c>
       <c r="K25">
-        <v>1.058461697033967</v>
+        <v>1.052820253246353</v>
       </c>
       <c r="L25">
-        <v>1.062468230127613</v>
+        <v>1.045244430042091</v>
       </c>
       <c r="M25">
-        <v>1.070421665750591</v>
+        <v>1.057284302691345</v>
       </c>
       <c r="N25">
-        <v>1.052747773799975</v>
+        <v>1.045276719025558</v>
       </c>
     </row>
   </sheetData>
